--- a/file/知識王.xlsx
+++ b/file/知識王.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ff129\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ff129\Desktop\Knowledge\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -1227,22 +1227,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="103.19921875" customWidth="1"/>
+    <col min="2" max="2" width="116.796875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.8984375" customWidth="1"/>
+    <col min="5" max="5" width="17.296875" customWidth="1"/>
+    <col min="6" max="6" width="21.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -1354,10 +1354,10 @@
         <v>30</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>43</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>49</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>61</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>67</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>73</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>79</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>85</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>91</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>97</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>103</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>109</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>114</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>119</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>125</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>130</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>136</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>142</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>148</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>154</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>160</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>166</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>172</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>177</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>183</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>189</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>195</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>200</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>206</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>212</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>218</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>223</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>229</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>235</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>241</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>243</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>249</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>255</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>261</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>265</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>271</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>277</v>
       </c>

--- a/file/知識王.xlsx
+++ b/file/知識王.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="284">
   <si>
     <t>題目</t>
   </si>
@@ -255,9 +255,6 @@
     <t>安裝防毒軟體</t>
   </si>
   <si>
-    <t>用無毒的開基光碟開機</t>
-  </si>
-  <si>
     <t>以下哪個是與逢甲合作取得正版授權的防毒軟體？</t>
   </si>
   <si>
@@ -756,18 +753,6 @@
     <t>金鑰表面上是64位元的，只有其中的56位被實際用於演算法，其餘8位元用於校驗棄。因此，DES的有效金鑰長度僅為56位。</t>
   </si>
   <si>
-    <t>64bit</t>
-  </si>
-  <si>
-    <t>9byte</t>
-  </si>
-  <si>
-    <t>8byte</t>
-  </si>
-  <si>
-    <t>56bit</t>
-  </si>
-  <si>
     <t>什麼是白帽駭客？</t>
   </si>
   <si>
@@ -868,6 +853,30 @@
   </si>
   <si>
     <t>提升遊戲效能</t>
+  </si>
+  <si>
+    <t>用無毒的開機光碟開機</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>64bits</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>56bits</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>56bits</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9bytes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8bytes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1228,13 +1237,13 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="103.19921875" customWidth="1"/>
+    <col min="1" max="1" width="65.19921875" customWidth="1"/>
     <col min="2" max="2" width="116.796875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="15.8984375" customWidth="1"/>
@@ -1535,7 +1544,7 @@
         <v>77</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>78</v>
+        <v>278</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>75</v>
@@ -1543,160 +1552,160 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="G16" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="G18" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="G19" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>45</v>
@@ -1704,45 +1713,45 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="G21" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>45</v>
@@ -1750,183 +1759,183 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="G23" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="G24" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="G25" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="G26" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G27" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="G28" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="G29" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>45</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>45</v>
@@ -1934,180 +1943,180 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="G31" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="G32" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="G33" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="D34" s="2">
         <v>123456789</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="G34" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="G35" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="G36" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="G37" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>45</v>
@@ -2118,79 +2127,79 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="G39" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="G40" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>240</v>
-      </c>
       <c r="G41" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="C42" s="2">
         <v>200</v>
@@ -2210,88 +2219,88 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>244</v>
-      </c>
       <c r="C43" s="2" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="G44" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>260</v>
-      </c>
       <c r="G45" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>45</v>
@@ -2302,71 +2311,71 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="G47" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="G48" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>282</v>
-      </c>
       <c r="G49" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
